--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/123/word_level_predictions_123.xlsx
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="D69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,291 +12693,291 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/123/word_level_predictions_123.xlsx
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>5</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,291 +12693,291 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
